--- a/intervals.xlsx
+++ b/intervals.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ruthu\masters_thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ruthu\masters-thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED44B97-496A-4732-BF95-8862F08E7200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32937B45-A38A-46B3-BBCB-32CDD38C6BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{6033BEDA-5185-4512-BB6E-9F92343E78E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Thodi</t>
   </si>
@@ -75,19 +75,67 @@
   </si>
   <si>
     <t>Cents(JI)</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>22-note</t>
+  </si>
+  <si>
+    <t>Note number</t>
+  </si>
+  <si>
+    <t>Frequency ratio</t>
+  </si>
+  <si>
+    <t>Cents</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Peak position (violin)</t>
+  </si>
+  <si>
+    <t>Nearest JI</t>
+  </si>
+  <si>
+    <t>Nearest EQ</t>
+  </si>
+  <si>
+    <t>Peak position (vocal)</t>
+  </si>
+  <si>
+    <t>Violin</t>
+  </si>
+  <si>
+    <t>Vocal</t>
+  </si>
+  <si>
+    <t>Difference(JI)</t>
+  </si>
+  <si>
+    <t>Difference(EQ)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,8 +158,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,15 +497,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5946624-6C5A-4C0F-8F29-B59CECFD1E7F}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F1" t="s">
         <v>9</v>
       </c>
@@ -467,8 +524,11 @@
       <c r="I1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -493,16 +553,26 @@
         <f>1200 * LN(G2)/LN(2)</f>
         <v>0</v>
       </c>
-      <c r="K2">
-        <f>$B$3*F2</f>
-        <v>362</v>
-      </c>
-      <c r="L2">
-        <f>$B$3*G2</f>
-        <v>362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -531,16 +601,28 @@
         <f>1200 * LN(G3)/LN(2)</f>
         <v>111.73128526977776</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K9" si="1">$B$3*F3</f>
-        <v>383.5256401580649</v>
+      <c r="K3" t="s">
+        <v>2</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L9" si="2">$B$3*G3</f>
-        <v>386.13333333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>L3-M3</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>L3-O3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>4</v>
       </c>
@@ -556,23 +638,35 @@
         <v>1.2</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:I9" si="3">1200 * LN(F4)/LN(2)</f>
+        <f t="shared" ref="H4:I9" si="1">1200 * LN(F4)/LN(2)</f>
         <v>299.99999999999994</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>315.64128700055255</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>430.49297563098503</v>
+      <c r="K4" t="s">
+        <v>3</v>
       </c>
       <c r="L4">
-        <f t="shared" si="2"/>
-        <v>434.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="M4">
+        <v>90</v>
+      </c>
+      <c r="N4">
+        <f>L4-M4</f>
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P10" si="2">L4-O4</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>5</v>
       </c>
@@ -588,23 +682,35 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>500.00000000000006</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>498.04499913461245</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>483.21202720955245</v>
+      <c r="K5" t="s">
+        <v>4</v>
       </c>
       <c r="L5">
+        <v>190</v>
+      </c>
+      <c r="M5">
+        <v>182</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N10" si="3">L5-M5</f>
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>200</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="2"/>
-        <v>482.66666666666663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -620,23 +726,35 @@
         <v>1.5</v>
       </c>
       <c r="H6">
+        <f t="shared" si="1"/>
+        <v>700.00000000000011</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>701.95500086538743</v>
+      </c>
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>492</v>
+      </c>
+      <c r="M6">
+        <v>498</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="3"/>
-        <v>700.00000000000011</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>701.95500086538743</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>542.38716182935866</v>
-      </c>
-      <c r="L6">
+        <v>-6</v>
+      </c>
+      <c r="O6">
+        <v>500</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="2"/>
-        <v>543</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -652,23 +770,35 @@
         <v>1.6</v>
       </c>
       <c r="H7">
+        <f t="shared" si="1"/>
+        <v>799.99999999999989</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>813.68628613516535</v>
+      </c>
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>700</v>
+      </c>
+      <c r="M7">
+        <v>702</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="3"/>
-        <v>799.99999999999989</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>813.68628613516535</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>574.63918081248812</v>
-      </c>
-      <c r="L7">
+        <v>-2</v>
+      </c>
+      <c r="O7">
+        <v>700</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="2"/>
-        <v>579.20000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>8</v>
       </c>
@@ -684,23 +814,35 @@
         <v>1.875</v>
       </c>
       <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1000.0000000000001</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1088.2687147302222</v>
+      </c>
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>792</v>
+      </c>
+      <c r="M8">
+        <v>792</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="3"/>
-        <v>1000.0000000000001</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>1088.2687147302222</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>645.01067193360564</v>
-      </c>
-      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>800</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="2"/>
-        <v>678.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>2</v>
       </c>
@@ -716,23 +858,57 @@
         <v>2</v>
       </c>
       <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>993</v>
+      </c>
+      <c r="M9">
+        <v>996</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O9">
+        <v>1000</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10">
         <v>1200</v>
       </c>
-      <c r="I9">
+      <c r="M10">
+        <v>1200</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>1200</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>724</v>
-      </c>
-      <c r="L9">
+      <c r="P10">
         <f t="shared" si="2"/>
-        <v>724</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E12">
         <v>0</v>
       </c>
@@ -751,8 +927,11 @@
         <f>1200 * LN(G12)/LN(2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E13">
         <v>1</v>
       </c>
@@ -765,15 +944,27 @@
         <v>1.0666666666666667</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H24" si="5">1200 * LN(F13)/LN(2)</f>
+        <f>1200 * LN(F13)/LN(2)</f>
         <v>100.00000000000009</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I24" si="6">1200 * LN(G13)/LN(2)</f>
+        <f t="shared" ref="I13:I24" si="5">1200 * LN(G13)/LN(2)</f>
         <v>111.73128526977776</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E14">
         <v>2</v>
       </c>
@@ -786,15 +977,27 @@
         <v>1.125</v>
       </c>
       <c r="H14">
+        <f t="shared" ref="H14:H24" si="6">1200 * LN(F14)/LN(2)</f>
+        <v>200.00000000000006</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="5"/>
-        <v>200.00000000000006</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="6"/>
         <v>203.91000173077487</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>3</v>
       </c>
@@ -807,15 +1010,27 @@
         <v>1.2</v>
       </c>
       <c r="H15">
+        <f t="shared" si="6"/>
+        <v>299.99999999999994</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="5"/>
-        <v>299.99999999999994</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="6"/>
         <v>315.64128700055255</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>90</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E16">
         <v>4</v>
       </c>
@@ -828,15 +1043,27 @@
         <v>1.25</v>
       </c>
       <c r="H16">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="5"/>
-        <v>400</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="6"/>
         <v>386.31371386483482</v>
       </c>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>180</v>
+      </c>
+      <c r="M16">
+        <v>182</v>
+      </c>
+      <c r="O16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>5</v>
       </c>
@@ -849,15 +1076,30 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="H17">
+        <f t="shared" si="6"/>
+        <v>500.00000000000006</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="5"/>
-        <v>500.00000000000006</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="6"/>
         <v>498.04499913461245</v>
       </c>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>500</v>
+      </c>
+      <c r="M17">
+        <v>498</v>
+      </c>
+      <c r="O17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
       <c r="E18">
         <v>6</v>
       </c>
@@ -870,15 +1112,27 @@
         <v>1.4</v>
       </c>
       <c r="H18">
+        <f t="shared" si="6"/>
+        <v>600.00000000000011</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="5"/>
-        <v>600.00000000000011</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="6"/>
         <v>582.51219260429014</v>
       </c>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>700</v>
+      </c>
+      <c r="M18">
+        <v>702</v>
+      </c>
+      <c r="O18">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.3">
       <c r="E19">
         <v>7</v>
       </c>
@@ -891,15 +1145,27 @@
         <v>1.5</v>
       </c>
       <c r="H19">
+        <f t="shared" si="6"/>
+        <v>700.00000000000011</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="5"/>
-        <v>700.00000000000011</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="6"/>
         <v>701.95500086538743</v>
       </c>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <v>800</v>
+      </c>
+      <c r="M19">
+        <v>792</v>
+      </c>
+      <c r="O19">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.3">
       <c r="E20">
         <v>8</v>
       </c>
@@ -912,15 +1178,27 @@
         <v>1.6</v>
       </c>
       <c r="H20">
+        <f t="shared" si="6"/>
+        <v>799.99999999999989</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="5"/>
-        <v>799.99999999999989</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="6"/>
         <v>813.68628613516535</v>
       </c>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>1000</v>
+      </c>
+      <c r="M20">
+        <v>996</v>
+      </c>
+      <c r="O20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.3">
       <c r="E21">
         <v>9</v>
       </c>
@@ -933,15 +1211,30 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="H21">
+        <f t="shared" si="6"/>
+        <v>900</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="5"/>
-        <v>900</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="6"/>
         <v>884.35871299944745</v>
       </c>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1200</v>
+      </c>
+      <c r="M21">
+        <v>1200</v>
+      </c>
+      <c r="O21">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
       <c r="E22">
         <v>10</v>
       </c>
@@ -954,15 +1247,15 @@
         <v>1.7777777777777777</v>
       </c>
       <c r="H22">
+        <f t="shared" si="6"/>
+        <v>1000.0000000000001</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="5"/>
-        <v>1000.0000000000001</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="6"/>
         <v>996.08999826922513</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.3">
       <c r="E23">
         <v>11</v>
       </c>
@@ -975,15 +1268,15 @@
         <v>1.875</v>
       </c>
       <c r="H23">
+        <f t="shared" si="6"/>
+        <v>1099.9999999999998</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="5"/>
-        <v>1099.9999999999998</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="6"/>
         <v>1088.2687147302222</v>
       </c>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.3">
       <c r="E24">
         <v>12</v>
       </c>
@@ -996,15 +1289,398 @@
         <v>2</v>
       </c>
       <c r="H24">
+        <f t="shared" si="6"/>
+        <v>1200</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="5"/>
         <v>1200</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="6"/>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f>ROUND(1200 * LN(F28)/LN(2),)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f>256/243</f>
+        <v>1.0534979423868314</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G50" si="7">ROUND(1200 * LN(F29)/LN(2),)</f>
+        <v>90</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <f>16/15</f>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="7"/>
+        <v>112</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <f>10/9</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="7"/>
+        <v>182</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <f>9/8</f>
+        <v>1.125</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="7"/>
+        <v>204</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <f>32/27</f>
+        <v>1.1851851851851851</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="7"/>
+        <v>294</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <f>6/5</f>
+        <v>1.2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="7"/>
+        <v>316</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <f>5/4</f>
+        <v>1.25</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="7"/>
+        <v>386</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <f>81/64</f>
+        <v>1.265625</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="7"/>
+        <v>408</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <f>4/3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="7"/>
+        <v>498</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <f>27/20</f>
+        <v>1.35</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="7"/>
+        <v>520</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <f>45/32</f>
+        <v>1.40625</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="7"/>
+        <v>590</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <f>729/512</f>
+        <v>1.423828125</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="7"/>
+        <v>612</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>13</v>
+      </c>
+      <c r="F41">
+        <f>3/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="7"/>
+        <v>702</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <f>128/81</f>
+        <v>1.5802469135802468</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="7"/>
+        <v>792</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>15</v>
+      </c>
+      <c r="F43">
+        <f>8/5</f>
+        <v>1.6</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="7"/>
+        <v>814</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>16</v>
+      </c>
+      <c r="F44">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="7"/>
+        <v>884</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>17</v>
+      </c>
+      <c r="F45">
+        <f>27/16</f>
+        <v>1.6875</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="7"/>
+        <v>906</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>18</v>
+      </c>
+      <c r="F46">
+        <f>16/9</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="7"/>
+        <v>996</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>19</v>
+      </c>
+      <c r="F47">
+        <f>9/5</f>
+        <v>1.8</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="7"/>
+        <v>1018</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <f>15/8</f>
+        <v>1.875</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="7"/>
+        <v>1088</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>21</v>
+      </c>
+      <c r="F49">
+        <f>243/128</f>
+        <v>1.8984375</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="7"/>
+        <v>1110</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>22</v>
+      </c>
+      <c r="F50">
+        <f>2/1</f>
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="7"/>
         <v>1200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>